--- a/farmer_milk_data.xlsx
+++ b/farmer_milk_data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19290" windowHeight="4485"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="123">
   <si>
     <t>Farmer_Name</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Branch Code</t>
   </si>
   <si>
-    <t>Payment Duration</t>
-  </si>
-  <si>
     <t>Payment Status</t>
   </si>
   <si>
@@ -152,265 +149,256 @@
     <t>Cow</t>
   </si>
   <si>
+    <t>Paneer 200g</t>
+  </si>
+  <si>
+    <t>PNR200</t>
+  </si>
+  <si>
+    <t>Milk quality was good</t>
+  </si>
+  <si>
+    <t>SBIN000301</t>
+  </si>
+  <si>
+    <t>464546545440</t>
+  </si>
+  <si>
+    <t>REF184826</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>000301</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>290629</t>
+  </si>
+  <si>
+    <t>10092025F9012</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Ramesh Patel</t>
+  </si>
+  <si>
+    <t>F9013</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
     <t>Skimmed Milk 500ml</t>
   </si>
   <si>
     <t>SKIM500</t>
   </si>
   <si>
-    <t>Milk quality was good</t>
-  </si>
-  <si>
-    <t>SBIN000301</t>
-  </si>
-  <si>
-    <t>464546545440</t>
+    <t>HDFC000145</t>
+  </si>
+  <si>
+    <t>502334112233</t>
+  </si>
+  <si>
+    <t>REF942636</t>
+  </si>
+  <si>
+    <t>001145</t>
+  </si>
+  <si>
+    <t>290630</t>
+  </si>
+  <si>
+    <t>10092025F9013</t>
+  </si>
+  <si>
+    <t>Kiran Desai</t>
+  </si>
+  <si>
+    <t>F9014</t>
+  </si>
+  <si>
+    <t>Nadiyad</t>
+  </si>
+  <si>
+    <t>Ghee 1L</t>
+  </si>
+  <si>
+    <t>GHEE1L</t>
+  </si>
+  <si>
+    <t>ICIC000287</t>
+  </si>
+  <si>
+    <t>721009988776</t>
+  </si>
+  <si>
+    <t>REF711630</t>
+  </si>
+  <si>
+    <t>002287</t>
+  </si>
+  <si>
+    <t>290631</t>
+  </si>
+  <si>
+    <t>10092025F9014</t>
+  </si>
+  <si>
+    <t>Amit Shah</t>
+  </si>
+  <si>
+    <t>F9015</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Curd 500g</t>
+  </si>
+  <si>
+    <t>CURD500</t>
+  </si>
+  <si>
+    <t>BOB000119</t>
+  </si>
+  <si>
+    <t>336699002211</t>
+  </si>
+  <si>
+    <t>REF254738</t>
+  </si>
+  <si>
+    <t>001119</t>
+  </si>
+  <si>
+    <t>290632</t>
+  </si>
+  <si>
+    <t>10092025F9015</t>
+  </si>
+  <si>
+    <t>REF704684</t>
+  </si>
+  <si>
+    <t>REF687808</t>
+  </si>
+  <si>
+    <t>REF526880</t>
+  </si>
+  <si>
+    <t>REF713190</t>
+  </si>
+  <si>
+    <t>REF228007</t>
+  </si>
+  <si>
+    <t>REF467823</t>
+  </si>
+  <si>
+    <t>REF511813</t>
+  </si>
+  <si>
+    <t>REF262971</t>
+  </si>
+  <si>
+    <t>REF741789</t>
+  </si>
+  <si>
+    <t>REF540642</t>
+  </si>
+  <si>
+    <t>REF399567</t>
+  </si>
+  <si>
+    <t>REF502128</t>
+  </si>
+  <si>
+    <t>REF592418</t>
+  </si>
+  <si>
+    <t>REF451565</t>
+  </si>
+  <si>
+    <t>REF979569</t>
+  </si>
+  <si>
+    <t>REF691890</t>
+  </si>
+  <si>
+    <t>REF458460</t>
+  </si>
+  <si>
+    <t>REF766036</t>
+  </si>
+  <si>
+    <t>REF892090</t>
+  </si>
+  <si>
+    <t>REF170682</t>
+  </si>
+  <si>
+    <t>REF848897</t>
+  </si>
+  <si>
+    <t>REF360967</t>
+  </si>
+  <si>
+    <t>REF534168</t>
+  </si>
+  <si>
+    <t>REF202119</t>
+  </si>
+  <si>
+    <t>REF147816</t>
+  </si>
+  <si>
+    <t>REF126083</t>
+  </si>
+  <si>
+    <t>REF558559</t>
+  </si>
+  <si>
+    <t>REF588337</t>
+  </si>
+  <si>
+    <t>REF777416</t>
+  </si>
+  <si>
+    <t>REF198215</t>
+  </si>
+  <si>
+    <t>REF892021</t>
+  </si>
+  <si>
+    <t>REF634118</t>
   </si>
   <si>
     <t>REF945644</t>
   </si>
   <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>000301</t>
-  </si>
-  <si>
-    <t>Delayed</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>290629</t>
-  </si>
-  <si>
-    <t>10092025F9012</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Morning</t>
-  </si>
-  <si>
-    <t>Curd 500g</t>
-  </si>
-  <si>
-    <t>CURD500</t>
-  </si>
-  <si>
-    <t>REF777416</t>
-  </si>
-  <si>
-    <t>On-Time</t>
-  </si>
-  <si>
-    <t>Doen</t>
-  </si>
-  <si>
-    <t>Paneer 200g</t>
-  </si>
-  <si>
-    <t>PNR200</t>
-  </si>
-  <si>
-    <t>REF147816</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>REF848897</t>
-  </si>
-  <si>
-    <t>REF458460</t>
-  </si>
-  <si>
-    <t>Mix</t>
-  </si>
-  <si>
-    <t>REF592418</t>
-  </si>
-  <si>
-    <t>REF741789</t>
-  </si>
-  <si>
-    <t>REF228007</t>
-  </si>
-  <si>
-    <t>REF704684</t>
-  </si>
-  <si>
-    <t>REF184826</t>
-  </si>
-  <si>
-    <t>Ramesh Patel</t>
-  </si>
-  <si>
-    <t>F9013</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>HDFC000145</t>
-  </si>
-  <si>
-    <t>502334112233</t>
-  </si>
-  <si>
     <t>REF285268</t>
   </si>
   <si>
-    <t>001145</t>
-  </si>
-  <si>
-    <t>290630</t>
-  </si>
-  <si>
-    <t>10092025F9013</t>
-  </si>
-  <si>
-    <t>Ghee 1L</t>
-  </si>
-  <si>
-    <t>GHEE1L</t>
-  </si>
-  <si>
-    <t>REF198215</t>
-  </si>
-  <si>
-    <t>REF126083</t>
-  </si>
-  <si>
-    <t>REF360967</t>
-  </si>
-  <si>
-    <t>REF766036</t>
-  </si>
-  <si>
-    <t>REF451565</t>
-  </si>
-  <si>
-    <t>REF540642</t>
-  </si>
-  <si>
-    <t>REF467823</t>
-  </si>
-  <si>
-    <t>REF687808</t>
-  </si>
-  <si>
-    <t>REF942636</t>
-  </si>
-  <si>
-    <t>Kiran Desai</t>
-  </si>
-  <si>
-    <t>F9014</t>
-  </si>
-  <si>
-    <t>Nadiyad</t>
-  </si>
-  <si>
-    <t>ICIC000287</t>
-  </si>
-  <si>
-    <t>721009988776</t>
-  </si>
-  <si>
     <t>REF248908</t>
   </si>
   <si>
-    <t>002287</t>
-  </si>
-  <si>
-    <t>290631</t>
-  </si>
-  <si>
-    <t>10092025F9014</t>
-  </si>
-  <si>
-    <t>REF892021</t>
-  </si>
-  <si>
-    <t>REF558559</t>
-  </si>
-  <si>
-    <t>REF534168</t>
-  </si>
-  <si>
-    <t>REF892090</t>
-  </si>
-  <si>
-    <t>REF979569</t>
-  </si>
-  <si>
-    <t>REF399567</t>
-  </si>
-  <si>
-    <t>REF511813</t>
-  </si>
-  <si>
-    <t>REF526880</t>
-  </si>
-  <si>
-    <t>REF711630</t>
-  </si>
-  <si>
-    <t>Amit Shah</t>
-  </si>
-  <si>
-    <t>F9015</t>
-  </si>
-  <si>
-    <t>Vadodara</t>
-  </si>
-  <si>
-    <t>BOB000119</t>
-  </si>
-  <si>
-    <t>336699002211</t>
-  </si>
-  <si>
     <t>REF479957</t>
-  </si>
-  <si>
-    <t>001119</t>
-  </si>
-  <si>
-    <t>290632</t>
-  </si>
-  <si>
-    <t>10092025F9015</t>
-  </si>
-  <si>
-    <t>REF634118</t>
-  </si>
-  <si>
-    <t>REF588337</t>
-  </si>
-  <si>
-    <t>REF202119</t>
-  </si>
-  <si>
-    <t>REF170682</t>
-  </si>
-  <si>
-    <t>REF691890</t>
-  </si>
-  <si>
-    <t>REF502128</t>
-  </si>
-  <si>
-    <t>REF262971</t>
-  </si>
-  <si>
-    <t>REF713190</t>
-  </si>
-  <si>
-    <t>REF254738</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1106,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1137,7 +1125,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="190500"/>
+          <a:off x="21955125" y="190500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1149,7 +1137,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1168,7 +1156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="381000"/>
+          <a:off x="21955125" y="381000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1180,7 +1168,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1199,7 +1187,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="571500"/>
+          <a:off x="21955125" y="571500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1211,7 +1199,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1230,7 +1218,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="762000"/>
+          <a:off x="21955125" y="762000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1242,7 +1230,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1261,7 +1249,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="952500"/>
+          <a:off x="21955125" y="952500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1273,7 +1261,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1292,7 +1280,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="1143000"/>
+          <a:off x="21955125" y="1143000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1304,7 +1292,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1323,7 +1311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="1333500"/>
+          <a:off x="21955125" y="1333500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1335,7 +1323,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1354,7 +1342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="1524000"/>
+          <a:off x="21955125" y="1524000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1366,7 +1354,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1385,7 +1373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="1714500"/>
+          <a:off x="21955125" y="1714500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1397,7 +1385,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1416,7 +1404,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="1905000"/>
+          <a:off x="21955125" y="1905000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1428,7 +1416,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1447,7 +1435,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="2095500"/>
+          <a:off x="21955125" y="2095500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1459,7 +1447,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1478,7 +1466,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="2286000"/>
+          <a:off x="21955125" y="2286000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1490,7 +1478,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1509,7 +1497,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="2476500"/>
+          <a:off x="21955125" y="2476500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1521,7 +1509,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1540,7 +1528,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="2667000"/>
+          <a:off x="21955125" y="2667000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1552,7 +1540,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1571,7 +1559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="2857500"/>
+          <a:off x="21955125" y="2857500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1583,7 +1571,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1602,7 +1590,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="3048000"/>
+          <a:off x="21955125" y="3048000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1614,7 +1602,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1633,7 +1621,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="3238500"/>
+          <a:off x="21955125" y="3238500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1645,7 +1633,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1664,7 +1652,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="3429000"/>
+          <a:off x="21955125" y="3429000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1676,7 +1664,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1695,7 +1683,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="3619500"/>
+          <a:off x="21955125" y="3619500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1707,7 +1695,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1726,7 +1714,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="3810000"/>
+          <a:off x="21955125" y="3810000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1738,7 +1726,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1757,7 +1745,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="4000500"/>
+          <a:off x="21955125" y="4000500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1769,7 +1757,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1788,7 +1776,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="4191000"/>
+          <a:off x="21955125" y="4191000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1800,7 +1788,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1819,7 +1807,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="4381500"/>
+          <a:off x="21955125" y="4381500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1831,7 +1819,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1850,7 +1838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="4572000"/>
+          <a:off x="21955125" y="4572000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1862,7 +1850,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1881,7 +1869,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="4762500"/>
+          <a:off x="21955125" y="4762500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1893,7 +1881,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1912,7 +1900,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="4953000"/>
+          <a:off x="21955125" y="4953000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1924,7 +1912,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1943,7 +1931,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="5143500"/>
+          <a:off x="21955125" y="5143500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1955,7 +1943,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1974,7 +1962,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="5334000"/>
+          <a:off x="21955125" y="5334000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1986,7 +1974,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2005,7 +1993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="5524500"/>
+          <a:off x="21955125" y="5524500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2017,7 +2005,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2036,7 +2024,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="5715000"/>
+          <a:off x="21955125" y="5715000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2048,7 +2036,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2067,7 +2055,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="5905500"/>
+          <a:off x="21955125" y="5905500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2079,7 +2067,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2098,7 +2086,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="6096000"/>
+          <a:off x="21955125" y="6096000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2110,7 +2098,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2129,7 +2117,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="6286500"/>
+          <a:off x="21955125" y="6286500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2141,7 +2129,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2160,7 +2148,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="6477000"/>
+          <a:off x="21955125" y="6477000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2172,7 +2160,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2191,7 +2179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="6667500"/>
+          <a:off x="21955125" y="6667500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2203,7 +2191,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2222,7 +2210,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="6858000"/>
+          <a:off x="21955125" y="6858000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2234,7 +2222,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2253,7 +2241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="7048500"/>
+          <a:off x="21955125" y="7048500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2265,7 +2253,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2284,7 +2272,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="7239000"/>
+          <a:off x="21955125" y="7239000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2296,7 +2284,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2315,7 +2303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="7429500"/>
+          <a:off x="21955125" y="7429500"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2327,7 +2315,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2346,7 +2334,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21497925" y="7620000"/>
+          <a:off x="21955125" y="7620000"/>
           <a:ext cx="904875" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2644,23 +2632,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="10.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="17.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="27.8571428571429" customWidth="1"/>
     <col min="20" max="20" width="11.7142857142857" customWidth="1"/>
-    <col min="21" max="21" width="11.5714285714286" customWidth="1"/>
+    <col min="21" max="21" width="12.4285714285714" customWidth="1"/>
     <col min="28" max="28" width="12.8571428571429" customWidth="1"/>
-    <col min="32" max="32" width="15.1428571428571" customWidth="1"/>
+    <col min="30" max="30" width="13.4285714285714" customWidth="1"/>
+    <col min="31" max="31" width="15.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2757,144 +2746,138 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2">
+        <v>45910</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2">
-        <v>45901</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
       <c r="H2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="I2">
-        <v>5.06</v>
+        <v>4.68</v>
       </c>
       <c r="J2">
-        <v>8.24</v>
+        <v>8.22</v>
       </c>
       <c r="K2">
         <v>34</v>
       </c>
       <c r="L2">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="M2">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="N2">
-        <v>2837.2</v>
+        <v>3646.4</v>
       </c>
       <c r="O2">
-        <v>2755.2</v>
+        <v>3593.4</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="2">
+        <v>45910</v>
+      </c>
+      <c r="U2" s="2">
+        <v>45915</v>
+      </c>
+      <c r="V2" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" s="2">
-        <v>45901</v>
-      </c>
-      <c r="U2" s="2">
-        <v>45906</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
       </c>
       <c r="W2">
         <v>4.3</v>
       </c>
       <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" t="s">
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2">
+        <v>45910</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2">
-        <v>45902</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>4.37</v>
       </c>
       <c r="J3">
-        <v>8.4</v>
+        <v>8.16</v>
       </c>
       <c r="K3">
         <v>34</v>
@@ -2903,705 +2886,684 @@
         <v>34.2</v>
       </c>
       <c r="M3">
-        <v>34.7</v>
+        <v>33.2</v>
       </c>
       <c r="N3">
-        <v>2736</v>
+        <v>2907</v>
       </c>
       <c r="O3">
-        <v>2776</v>
+        <v>2822</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" s="2">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="U3" s="2">
-        <v>45907</v>
+        <v>45915</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" t="s">
-        <v>57</v>
-      </c>
       <c r="AD3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" t="s">
         <v>50</v>
       </c>
-      <c r="AF3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2">
+        <v>45910</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>45903</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>3.99</v>
+        <v>4.4</v>
       </c>
       <c r="J4">
-        <v>8.24</v>
+        <v>8.41</v>
       </c>
       <c r="K4">
         <v>34</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="M4">
-        <v>33.5</v>
+        <v>34.2</v>
       </c>
       <c r="N4">
-        <v>3740</v>
+        <v>3420</v>
       </c>
       <c r="O4">
-        <v>3685</v>
+        <v>3420</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="T4" s="2">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="U4" s="2">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W4">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
       <c r="AD4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
       <c r="E5" s="2">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I5">
-        <v>5.08</v>
+        <v>3.85</v>
       </c>
       <c r="J5">
-        <v>8.1</v>
+        <v>8.52</v>
       </c>
       <c r="K5">
         <v>34</v>
       </c>
       <c r="L5">
-        <v>34.6</v>
+        <v>33.9</v>
       </c>
       <c r="M5">
-        <v>33.6</v>
+        <v>32.9</v>
       </c>
       <c r="N5">
-        <v>3460</v>
+        <v>3288.3</v>
       </c>
       <c r="O5">
-        <v>3360</v>
+        <v>3191.3</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T5" s="2">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="U5" s="2">
+        <v>45915</v>
+      </c>
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5">
+        <v>4.3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
         <v>45909</v>
       </c>
-      <c r="V5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5">
-        <v>4.6</v>
-      </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45905</v>
-      </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H6">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I6">
-        <v>4.86</v>
+        <v>4.07</v>
       </c>
       <c r="J6">
-        <v>8.65</v>
+        <v>8.57</v>
       </c>
       <c r="K6">
         <v>34</v>
       </c>
       <c r="L6">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6">
-        <v>3070.5</v>
+        <v>3264</v>
       </c>
       <c r="O6">
-        <v>3115</v>
+        <v>3264</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>45907</v>
+        <v>45912</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="2">
+        <v>45909</v>
+      </c>
+      <c r="U6" s="2">
+        <v>45914</v>
+      </c>
+      <c r="V6" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="2">
-        <v>45905</v>
-      </c>
-      <c r="U6" s="2">
-        <v>45910</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6">
+        <v>3.8</v>
+      </c>
+      <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="W6">
-        <v>4.5</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" t="s">
-        <v>44</v>
-      </c>
       <c r="Z6" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="AA6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" t="s">
-        <v>57</v>
-      </c>
       <c r="AD6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" t="s">
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="2">
-        <v>45906</v>
+        <v>45909</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H7">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>4.32</v>
+        <v>4.91</v>
       </c>
       <c r="J7">
-        <v>8.81</v>
+        <v>8.2</v>
       </c>
       <c r="K7">
         <v>34</v>
       </c>
       <c r="L7">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="M7">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="N7">
-        <v>2257.2</v>
+        <v>2484</v>
       </c>
       <c r="O7">
-        <v>2290.2</v>
+        <v>2448</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="S7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="2">
+        <v>45909</v>
+      </c>
+      <c r="U7" s="2">
+        <v>45914</v>
+      </c>
+      <c r="V7" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="2">
-        <v>45906</v>
-      </c>
-      <c r="U7" s="2">
-        <v>45911</v>
-      </c>
-      <c r="V7" t="s">
-        <v>42</v>
-      </c>
       <c r="W7">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="X7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Y7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Z7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" t="s">
-        <v>57</v>
-      </c>
       <c r="AD7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="2">
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I8">
-        <v>4.18</v>
+        <v>4.28</v>
       </c>
       <c r="J8">
-        <v>8.18</v>
+        <v>8.17</v>
       </c>
       <c r="K8">
         <v>34</v>
       </c>
       <c r="L8">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="M8">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="N8">
-        <v>2830.3</v>
+        <v>4035.6</v>
       </c>
       <c r="O8">
-        <v>2830.3</v>
+        <v>4035.6</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="2">
         <v>45909</v>
       </c>
-      <c r="R8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="2">
-        <v>45907</v>
-      </c>
       <c r="U8" s="2">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W8">
         <v>4.5</v>
       </c>
       <c r="X8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="Y8" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AA8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC8" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" t="s">
-        <v>57</v>
-      </c>
       <c r="AD8" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" s="2">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I9">
-        <v>3.96</v>
+        <v>5.1</v>
       </c>
       <c r="J9">
-        <v>8.36</v>
+        <v>8.61</v>
       </c>
       <c r="K9">
         <v>34</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>34.7</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>35.2</v>
       </c>
       <c r="N9">
-        <v>2992</v>
+        <v>2463.7</v>
       </c>
       <c r="O9">
-        <v>2992</v>
+        <v>2499.2</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="R9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T9" s="2">
+        <v>45909</v>
+      </c>
+      <c r="U9" s="2">
+        <v>45914</v>
+      </c>
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9">
+        <v>4.8</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2">
         <v>45908</v>
       </c>
-      <c r="U9" s="2">
-        <v>45913</v>
-      </c>
-      <c r="V9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9">
-        <v>3.8</v>
-      </c>
-      <c r="X9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45909</v>
-      </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H10">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I10">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="J10">
-        <v>8.57</v>
+        <v>8.36</v>
       </c>
       <c r="K10">
         <v>34</v>
@@ -3613,111 +3575,108 @@
         <v>34</v>
       </c>
       <c r="N10">
-        <v>3264</v>
+        <v>2992</v>
       </c>
       <c r="O10">
-        <v>3264</v>
+        <v>2992</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
         <v>40</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" s="2">
+        <v>45908</v>
+      </c>
+      <c r="U10" s="2">
+        <v>45913</v>
+      </c>
+      <c r="V10" t="s">
         <v>41</v>
-      </c>
-      <c r="T10" s="2">
-        <v>45909</v>
-      </c>
-      <c r="U10" s="2">
-        <v>45914</v>
-      </c>
-      <c r="V10" t="s">
-        <v>42</v>
       </c>
       <c r="W10">
         <v>3.8</v>
       </c>
       <c r="X10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" t="s">
         <v>43</v>
       </c>
-      <c r="Y10" t="s">
-        <v>44</v>
-      </c>
       <c r="Z10" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AA10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" t="s">
         <v>46</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>47</v>
       </c>
-      <c r="AC10" t="s">
-        <v>57</v>
-      </c>
       <c r="AD10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE10" t="s">
         <v>49</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>50</v>
       </c>
-      <c r="AF10" t="s">
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="2">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I11">
-        <v>4.68</v>
+        <v>4.36</v>
       </c>
       <c r="J11">
-        <v>8.22</v>
+        <v>8.47</v>
       </c>
       <c r="K11">
         <v>34</v>
       </c>
       <c r="L11">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="M11">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="N11">
-        <v>3646.4</v>
+        <v>3693.6</v>
       </c>
       <c r="O11">
-        <v>3593.4</v>
+        <v>3639.6</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3726,892 +3685,865 @@
         <v>45912</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="2">
+        <v>45908</v>
+      </c>
+      <c r="U11" s="2">
+        <v>45913</v>
+      </c>
+      <c r="V11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11">
+        <v>3.8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="2">
-        <v>45910</v>
-      </c>
-      <c r="U11" s="2">
-        <v>45915</v>
-      </c>
-      <c r="V11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W11">
-        <v>4.3</v>
-      </c>
-      <c r="X11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>47</v>
       </c>
-      <c r="AC11" t="s">
-        <v>48</v>
-      </c>
       <c r="AD11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" t="s">
         <v>50</v>
       </c>
-      <c r="AF11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>4.16</v>
+        <v>4.06</v>
       </c>
       <c r="J12">
-        <v>8.7</v>
+        <v>8.8</v>
       </c>
       <c r="K12">
         <v>34</v>
       </c>
       <c r="L12">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>34.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12">
-        <v>3375.9</v>
+        <v>2278</v>
       </c>
       <c r="O12">
-        <v>3425.4</v>
+        <v>2244.5</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="T12" s="2">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="U12" s="2">
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W12">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="AA12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45908</v>
+      </c>
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE12" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="AF12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45902</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
       <c r="H13">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="I13">
-        <v>4.59</v>
+        <v>4.35</v>
       </c>
       <c r="J13">
-        <v>8.16</v>
+        <v>8.06</v>
       </c>
       <c r="K13">
         <v>34</v>
       </c>
       <c r="L13">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="M13">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="N13">
-        <v>2992.8</v>
+        <v>3967.2</v>
       </c>
       <c r="O13">
-        <v>2905.8</v>
+        <v>3909.2</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="R13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
         <v>80</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" s="2">
+        <v>45908</v>
+      </c>
+      <c r="U13" s="2">
+        <v>45913</v>
+      </c>
+      <c r="V13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13">
+        <v>3.9</v>
+      </c>
+      <c r="X13" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="2">
-        <v>45902</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="Y13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
         <v>45907</v>
       </c>
-      <c r="V13" t="s">
-        <v>42</v>
-      </c>
-      <c r="W13">
-        <v>4.1</v>
-      </c>
-      <c r="X13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2">
-        <v>45903</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H14">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I14">
-        <v>4.66</v>
+        <v>4.18</v>
       </c>
       <c r="J14">
-        <v>8.57</v>
+        <v>8.18</v>
       </c>
       <c r="K14">
         <v>34</v>
       </c>
       <c r="L14">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="M14">
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
       <c r="N14">
-        <v>3680.8</v>
+        <v>2830.3</v>
       </c>
       <c r="O14">
-        <v>3734.3</v>
+        <v>2830.3</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="R14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T14" s="2">
-        <v>45903</v>
+        <v>45907</v>
       </c>
       <c r="U14" s="2">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="V14" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14">
+        <v>4.5</v>
+      </c>
+      <c r="X14" t="s">
         <v>42</v>
       </c>
-      <c r="W14">
-        <v>3.9</v>
-      </c>
-      <c r="X14" t="s">
-        <v>74</v>
-      </c>
       <c r="Y14" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="Z14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AA14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" t="s">
         <v>46</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45907</v>
+      </c>
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="AC14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45904</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
       <c r="H15">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>4.96</v>
+        <v>4.25</v>
       </c>
       <c r="J15">
-        <v>8.36</v>
+        <v>8.03</v>
       </c>
       <c r="K15">
         <v>34</v>
       </c>
       <c r="L15">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="M15">
-        <v>34.1</v>
+        <v>33.1</v>
       </c>
       <c r="N15">
-        <v>4013.6</v>
+        <v>2591.6</v>
       </c>
       <c r="O15">
-        <v>3955.6</v>
+        <v>2515.6</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="T15" s="2">
-        <v>45904</v>
+        <v>45907</v>
       </c>
       <c r="U15" s="2">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W15">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="X15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="Y15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Z15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AC15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AF15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45907</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2">
-        <v>45905</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
       <c r="H16">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I16">
-        <v>4.83</v>
+        <v>3.9</v>
       </c>
       <c r="J16">
-        <v>8.52</v>
+        <v>8.73</v>
       </c>
       <c r="K16">
         <v>34</v>
       </c>
       <c r="L16">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>33.4</v>
       </c>
       <c r="N16">
-        <v>3208.5</v>
+        <v>3457.8</v>
       </c>
       <c r="O16">
-        <v>3162</v>
+        <v>3406.8</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="2">
         <v>45907</v>
       </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" s="2">
-        <v>45905</v>
-      </c>
       <c r="U16" s="2">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="V16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W16">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="X16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="Z16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45907</v>
+      </c>
+      <c r="F17" t="s">
         <v>77</v>
       </c>
-      <c r="AC16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE16">
-        <v>290630</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45906</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H17">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I17">
-        <v>4.12</v>
+        <v>4.02</v>
       </c>
       <c r="J17">
-        <v>8.72</v>
+        <v>8.59</v>
       </c>
       <c r="K17">
         <v>34</v>
       </c>
       <c r="L17">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="N17">
-        <v>2659.8</v>
+        <v>2278</v>
       </c>
       <c r="O17">
-        <v>2581.8</v>
+        <v>2244.5</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="S17" t="s">
+        <v>67</v>
+      </c>
+      <c r="T17" s="2">
+        <v>45907</v>
+      </c>
+      <c r="U17" s="2">
+        <v>45912</v>
+      </c>
+      <c r="V17" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17">
+        <v>4.7</v>
+      </c>
+      <c r="X17" t="s">
         <v>81</v>
       </c>
-      <c r="T17" s="2">
+      <c r="Y17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2">
         <v>45906</v>
       </c>
-      <c r="U17" s="2">
-        <v>45911</v>
-      </c>
-      <c r="V17" t="s">
-        <v>42</v>
-      </c>
-      <c r="W17">
-        <v>4.4</v>
-      </c>
-      <c r="X17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2">
-        <v>45907</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I18">
-        <v>4.25</v>
+        <v>4.32</v>
       </c>
       <c r="J18">
-        <v>8.03</v>
+        <v>8.81</v>
       </c>
       <c r="K18">
         <v>34</v>
       </c>
       <c r="L18">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="M18">
-        <v>33.1</v>
+        <v>34.7</v>
       </c>
       <c r="N18">
-        <v>2591.6</v>
+        <v>2257.2</v>
       </c>
       <c r="O18">
-        <v>2515.6</v>
+        <v>2290.2</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="T18" s="2">
-        <v>45907</v>
+        <v>45906</v>
       </c>
       <c r="U18" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="V18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18">
+        <v>4.2</v>
+      </c>
+      <c r="X18" t="s">
         <v>42</v>
       </c>
-      <c r="W18">
-        <v>4.1</v>
-      </c>
-      <c r="X18" t="s">
-        <v>74</v>
-      </c>
       <c r="Y18" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="Z18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AA18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" t="s">
         <v>46</v>
       </c>
-      <c r="AB18" t="s">
-        <v>77</v>
-      </c>
       <c r="AC18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD18" t="s">
         <v>48</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>49</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45906</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
         <v>78</v>
       </c>
-      <c r="AF18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45908</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
       <c r="H19">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>4.36</v>
+        <v>4.12</v>
       </c>
       <c r="J19">
-        <v>8.47</v>
+        <v>8.72</v>
       </c>
       <c r="K19">
         <v>34</v>
       </c>
       <c r="L19">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="M19">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="N19">
-        <v>3693.6</v>
+        <v>2659.8</v>
       </c>
       <c r="O19">
-        <v>3639.6</v>
+        <v>2581.8</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="T19" s="2">
-        <v>45908</v>
+        <v>45906</v>
       </c>
       <c r="U19" s="2">
-        <v>45913</v>
+        <v>45911</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W19">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="X19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="Y19" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Z19" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45906</v>
+      </c>
+      <c r="F20" t="s">
         <v>77</v>
       </c>
-      <c r="AC19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45909</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I20">
-        <v>4.91</v>
+        <v>4.86</v>
       </c>
       <c r="J20">
-        <v>8.2</v>
+        <v>8.87</v>
       </c>
       <c r="K20">
         <v>34</v>
@@ -4620,114 +4552,111 @@
         <v>34.5</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>2484</v>
+        <v>2277</v>
       </c>
       <c r="O20">
-        <v>2448</v>
+        <v>2310</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20" t="s">
+        <v>67</v>
+      </c>
+      <c r="T20" s="2">
+        <v>45906</v>
+      </c>
+      <c r="U20" s="2">
         <v>45911</v>
       </c>
-      <c r="R20" t="s">
-        <v>80</v>
-      </c>
-      <c r="S20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" s="2">
-        <v>45909</v>
-      </c>
-      <c r="U20" s="2">
-        <v>45914</v>
-      </c>
       <c r="V20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W20">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="X20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="Z20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45906</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="2">
-        <v>45910</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
       <c r="H21">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="I21">
-        <v>4.37</v>
+        <v>4.8</v>
       </c>
       <c r="J21">
-        <v>8.16</v>
+        <v>8.46</v>
       </c>
       <c r="K21">
         <v>34</v>
       </c>
       <c r="L21">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="M21">
-        <v>33.2</v>
+        <v>34</v>
       </c>
       <c r="N21">
-        <v>2907</v>
+        <v>3760.5</v>
       </c>
       <c r="O21">
-        <v>2822</v>
+        <v>3706</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4736,1008 +4665,978 @@
         <v>45912</v>
       </c>
       <c r="R21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="S21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="2">
+        <v>45906</v>
+      </c>
+      <c r="U21" s="2">
+        <v>45911</v>
+      </c>
+      <c r="V21" t="s">
         <v>41</v>
-      </c>
-      <c r="T21" s="2">
-        <v>45910</v>
-      </c>
-      <c r="U21" s="2">
-        <v>45915</v>
-      </c>
-      <c r="V21" t="s">
-        <v>42</v>
       </c>
       <c r="W21">
         <v>4.2</v>
       </c>
       <c r="X21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AA21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45905</v>
+      </c>
+      <c r="F22" t="s">
         <v>77</v>
       </c>
-      <c r="AC21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45901</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
       <c r="H22">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I22">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="J22">
-        <v>8.39</v>
+        <v>8.65</v>
       </c>
       <c r="K22">
         <v>34</v>
       </c>
       <c r="L22">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="M22">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="N22">
-        <v>2664.2</v>
+        <v>3070.5</v>
       </c>
       <c r="O22">
-        <v>2702.7</v>
+        <v>3115</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="R22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T22" s="2">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="U22" s="2">
-        <v>45906</v>
+        <v>45910</v>
       </c>
       <c r="V22" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22">
+        <v>4.5</v>
+      </c>
+      <c r="X22" t="s">
         <v>42</v>
       </c>
-      <c r="W22">
-        <v>3.9</v>
-      </c>
-      <c r="X22" t="s">
-        <v>94</v>
-      </c>
       <c r="Y22" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AA22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" t="s">
         <v>46</v>
       </c>
-      <c r="AB22" t="s">
-        <v>97</v>
-      </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AD22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE22" t="s">
         <v>49</v>
       </c>
-      <c r="AE22" t="s">
-        <v>98</v>
-      </c>
       <c r="AF22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
       <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45905</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2">
-        <v>45902</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23">
-        <v>104</v>
-      </c>
       <c r="I23">
-        <v>4.19</v>
+        <v>4.83</v>
       </c>
       <c r="J23">
-        <v>8.33</v>
+        <v>8.52</v>
       </c>
       <c r="K23">
         <v>34</v>
       </c>
       <c r="L23">
-        <v>34.1</v>
+        <v>34.5</v>
       </c>
       <c r="M23">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>3546.4</v>
+        <v>3208.5</v>
       </c>
       <c r="O23">
-        <v>3546.4</v>
+        <v>3162</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="T23" s="2">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="U23" s="2">
-        <v>45907</v>
+        <v>45910</v>
       </c>
       <c r="V23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W23">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X23" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="Y23" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="Z23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD23">
+        <v>290630</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45905</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
         <v>100</v>
       </c>
-      <c r="AA23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE23">
-        <v>290631</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45903</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24">
-        <v>117</v>
-      </c>
       <c r="I24">
-        <v>4.36</v>
+        <v>4.65</v>
       </c>
       <c r="J24">
-        <v>8.02</v>
+        <v>8.76</v>
       </c>
       <c r="K24">
         <v>34</v>
       </c>
       <c r="L24">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="M24">
-        <v>33.2</v>
+        <v>34.4</v>
       </c>
       <c r="N24">
-        <v>4001.4</v>
+        <v>3440</v>
       </c>
       <c r="O24">
-        <v>3884.4</v>
+        <v>3440</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" s="2">
         <v>45905</v>
       </c>
-      <c r="R24" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" t="s">
-        <v>60</v>
-      </c>
-      <c r="T24" s="2">
-        <v>45903</v>
-      </c>
       <c r="U24" s="2">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="V24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W24">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="X24" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Y24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45905</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25">
         <v>95</v>
       </c>
-      <c r="Z24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2">
-        <v>45904</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25">
-        <v>104</v>
-      </c>
       <c r="I25">
-        <v>4.97</v>
+        <v>5.2</v>
       </c>
       <c r="J25">
-        <v>8.31</v>
+        <v>8.63</v>
       </c>
       <c r="K25">
         <v>34</v>
       </c>
       <c r="L25">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="M25">
-        <v>33.6</v>
+        <v>34.7</v>
       </c>
       <c r="N25">
-        <v>3598.4</v>
+        <v>3296.5</v>
       </c>
       <c r="O25">
-        <v>3494.4</v>
+        <v>3296.5</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="R25" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s">
         <v>80</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U25" s="2">
+        <v>45910</v>
+      </c>
+      <c r="V25" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25">
+        <v>4.7</v>
+      </c>
+      <c r="X25" t="s">
         <v>81</v>
       </c>
-      <c r="T25" s="2">
+      <c r="Y25" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2">
         <v>45904</v>
       </c>
-      <c r="U25" s="2">
-        <v>45909</v>
-      </c>
-      <c r="V25" t="s">
-        <v>42</v>
-      </c>
-      <c r="W25">
-        <v>4.6</v>
-      </c>
-      <c r="X25" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45905</v>
-      </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H26">
         <v>100</v>
       </c>
       <c r="I26">
-        <v>4.65</v>
+        <v>5.08</v>
       </c>
       <c r="J26">
-        <v>8.76</v>
+        <v>8.1</v>
       </c>
       <c r="K26">
         <v>34</v>
       </c>
       <c r="L26">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="M26">
-        <v>34.4</v>
+        <v>33.6</v>
       </c>
       <c r="N26">
-        <v>3440</v>
+        <v>3460</v>
       </c>
       <c r="O26">
-        <v>3440</v>
+        <v>3360</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>45907</v>
+        <v>45912</v>
       </c>
       <c r="R26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
         <v>40</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" s="2">
+        <v>45904</v>
+      </c>
+      <c r="U26" s="2">
+        <v>45909</v>
+      </c>
+      <c r="V26" t="s">
         <v>41</v>
       </c>
-      <c r="T26" s="2">
-        <v>45905</v>
-      </c>
-      <c r="U26" s="2">
-        <v>45910</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26">
+        <v>4.6</v>
+      </c>
+      <c r="X26" t="s">
         <v>42</v>
       </c>
-      <c r="W26">
-        <v>3.8</v>
-      </c>
-      <c r="X26" t="s">
-        <v>94</v>
-      </c>
       <c r="Y26" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="Z26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AA26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s">
         <v>46</v>
       </c>
-      <c r="AB26" t="s">
-        <v>97</v>
-      </c>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AD26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE26" t="s">
         <v>49</v>
       </c>
-      <c r="AE26" t="s">
-        <v>98</v>
-      </c>
       <c r="AF26" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:33">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45904</v>
+      </c>
+      <c r="F27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="2">
-        <v>45906</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H27">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="I27">
-        <v>4.86</v>
+        <v>4.96</v>
       </c>
       <c r="J27">
-        <v>8.87</v>
+        <v>8.36</v>
       </c>
       <c r="K27">
         <v>34</v>
       </c>
       <c r="L27">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="N27">
-        <v>2277</v>
+        <v>4013.6</v>
       </c>
       <c r="O27">
-        <v>2310</v>
+        <v>3955.6</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="R27" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s">
         <v>80</v>
       </c>
-      <c r="S27" t="s">
-        <v>81</v>
-      </c>
       <c r="T27" s="2">
-        <v>45906</v>
+        <v>45904</v>
       </c>
       <c r="U27" s="2">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="V27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W27">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X27" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="Y27" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="Z27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45904</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28">
         <v>104</v>
       </c>
-      <c r="AA27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45907</v>
-      </c>
-      <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28">
-        <v>102</v>
-      </c>
       <c r="I28">
-        <v>3.9</v>
+        <v>4.97</v>
       </c>
       <c r="J28">
-        <v>8.73</v>
+        <v>8.31</v>
       </c>
       <c r="K28">
         <v>34</v>
       </c>
       <c r="L28">
-        <v>33.9</v>
+        <v>34.6</v>
       </c>
       <c r="M28">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="N28">
-        <v>3457.8</v>
+        <v>3598.4</v>
       </c>
       <c r="O28">
-        <v>3406.8</v>
+        <v>3494.4</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" s="2">
+        <v>45904</v>
+      </c>
+      <c r="U28" s="2">
         <v>45909</v>
       </c>
-      <c r="R28" t="s">
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28">
+        <v>4.6</v>
+      </c>
+      <c r="X28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45904</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
         <v>54</v>
       </c>
-      <c r="S28" t="s">
-        <v>55</v>
-      </c>
-      <c r="T28" s="2">
-        <v>45907</v>
-      </c>
-      <c r="U28" s="2">
-        <v>45912</v>
-      </c>
-      <c r="V28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W28">
-        <v>4.1</v>
-      </c>
-      <c r="X28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45908</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
       <c r="H29">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I29">
-        <v>4.06</v>
+        <v>4.12</v>
       </c>
       <c r="J29">
-        <v>8.8</v>
+        <v>8.4</v>
       </c>
       <c r="K29">
         <v>34</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="M29">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
       <c r="N29">
-        <v>2278</v>
+        <v>3034.9</v>
       </c>
       <c r="O29">
-        <v>2244.5</v>
+        <v>2945.9</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="R29" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="S29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" s="2">
+        <v>45904</v>
+      </c>
+      <c r="U29" s="2">
+        <v>45909</v>
+      </c>
+      <c r="V29" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29">
+        <v>4.1</v>
+      </c>
+      <c r="X29" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="2">
-        <v>45908</v>
-      </c>
-      <c r="U29" s="2">
-        <v>45913</v>
-      </c>
-      <c r="V29" t="s">
-        <v>42</v>
-      </c>
-      <c r="W29">
-        <v>4.5</v>
-      </c>
-      <c r="X29" t="s">
-        <v>94</v>
-      </c>
       <c r="Y29" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AA29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="AC29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD29" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AE29" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AF29" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I30">
-        <v>4.28</v>
+        <v>3.99</v>
       </c>
       <c r="J30">
-        <v>8.17</v>
+        <v>8.24</v>
       </c>
       <c r="K30">
         <v>34</v>
       </c>
       <c r="L30">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>34.2</v>
+        <v>33.5</v>
       </c>
       <c r="N30">
-        <v>4035.6</v>
+        <v>3740</v>
       </c>
       <c r="O30">
-        <v>4035.6</v>
+        <v>3685</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="R30" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T30" s="2">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="U30" s="2">
-        <v>45914</v>
+        <v>45908</v>
       </c>
       <c r="V30" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30">
+        <v>4.3</v>
+      </c>
+      <c r="X30" t="s">
         <v>42</v>
       </c>
-      <c r="W30">
-        <v>4.5</v>
-      </c>
-      <c r="X30" t="s">
-        <v>94</v>
-      </c>
       <c r="Y30" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45903</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31">
         <v>107</v>
       </c>
-      <c r="AA30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2">
-        <v>45910</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
       <c r="I31">
-        <v>4.4</v>
+        <v>4.66</v>
       </c>
       <c r="J31">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="K31">
         <v>34</v>
       </c>
       <c r="L31">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="M31">
-        <v>34.2</v>
+        <v>34.9</v>
       </c>
       <c r="N31">
-        <v>3420</v>
+        <v>3680.8</v>
       </c>
       <c r="O31">
-        <v>3420</v>
+        <v>3734.3</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -5746,1008 +5645,978 @@
         <v>45912</v>
       </c>
       <c r="R31" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T31" s="2">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="U31" s="2">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="V31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W31">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="X31" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="Y31" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="Z31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AA31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="AC31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AD31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE31" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="AF31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H32">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I32">
-        <v>4.99</v>
+        <v>4.36</v>
       </c>
       <c r="J32">
-        <v>8.12</v>
+        <v>8.02</v>
       </c>
       <c r="K32">
         <v>34</v>
       </c>
       <c r="L32">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="M32">
-        <v>34.1</v>
+        <v>33.2</v>
       </c>
       <c r="N32">
-        <v>3667.6</v>
+        <v>4001.4</v>
       </c>
       <c r="O32">
-        <v>3614.6</v>
+        <v>3884.4</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="2">
         <v>45903</v>
       </c>
-      <c r="R32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S32" t="s">
-        <v>55</v>
-      </c>
-      <c r="T32" s="2">
-        <v>45901</v>
-      </c>
       <c r="U32" s="2">
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="V32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W32">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="X32" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="Y32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
-      <c r="Z32" t="s">
-        <v>114</v>
-      </c>
       <c r="AA32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AC32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD32" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I33">
-        <v>4.73</v>
+        <v>4.18</v>
       </c>
       <c r="J33">
-        <v>8.74</v>
+        <v>8.52</v>
       </c>
       <c r="K33">
         <v>34</v>
       </c>
       <c r="L33">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="M33">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="N33">
-        <v>2339.2</v>
+        <v>2455.2</v>
       </c>
       <c r="O33">
-        <v>2305.2</v>
+        <v>2455.2</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="R33" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" s="2">
+        <v>45903</v>
+      </c>
+      <c r="U33" s="2">
+        <v>45908</v>
+      </c>
+      <c r="V33" t="s">
         <v>41</v>
       </c>
-      <c r="T33" s="2">
+      <c r="W33">
+        <v>4.1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2">
         <v>45902</v>
       </c>
-      <c r="U33" s="2">
-        <v>45907</v>
-      </c>
-      <c r="V33" t="s">
-        <v>42</v>
-      </c>
-      <c r="W33">
-        <v>4.3</v>
-      </c>
-      <c r="X33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33">
-      <c r="A34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45903</v>
-      </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="J34">
-        <v>8.52</v>
+        <v>8.4</v>
       </c>
       <c r="K34">
         <v>34</v>
       </c>
       <c r="L34">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="M34">
-        <v>34.1</v>
+        <v>34.7</v>
       </c>
       <c r="N34">
-        <v>2455.2</v>
+        <v>2736</v>
       </c>
       <c r="O34">
-        <v>2455.2</v>
+        <v>2776</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="R34" t="s">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s">
+        <v>80</v>
+      </c>
+      <c r="T34" s="2">
+        <v>45902</v>
+      </c>
+      <c r="U34" s="2">
+        <v>45907</v>
+      </c>
+      <c r="V34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34">
+        <v>4.3</v>
+      </c>
+      <c r="X34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45902</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
         <v>54</v>
       </c>
-      <c r="S34" t="s">
-        <v>55</v>
-      </c>
-      <c r="T34" s="2">
-        <v>45903</v>
-      </c>
-      <c r="U34" s="2">
-        <v>45908</v>
-      </c>
-      <c r="V34" t="s">
-        <v>42</v>
-      </c>
-      <c r="W34">
-        <v>4.1</v>
-      </c>
-      <c r="X34" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33">
-      <c r="A35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45904</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
       <c r="H35">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I35">
-        <v>4.12</v>
+        <v>4.59</v>
       </c>
       <c r="J35">
-        <v>8.4</v>
+        <v>8.16</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="M35">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="N35">
-        <v>3034.9</v>
+        <v>2992.8</v>
       </c>
       <c r="O35">
-        <v>2945.9</v>
+        <v>2905.8</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>45906</v>
+        <v>45912</v>
       </c>
       <c r="R35" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="S35" t="s">
+        <v>67</v>
+      </c>
+      <c r="T35" s="2">
+        <v>45902</v>
+      </c>
+      <c r="U35" s="2">
+        <v>45907</v>
+      </c>
+      <c r="V35" t="s">
         <v>41</v>
-      </c>
-      <c r="T35" s="2">
-        <v>45904</v>
-      </c>
-      <c r="U35" s="2">
-        <v>45909</v>
-      </c>
-      <c r="V35" t="s">
-        <v>42</v>
       </c>
       <c r="W35">
         <v>4.1</v>
       </c>
       <c r="X35" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="Y35" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="Z35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AA35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="AC35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE35" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="AF35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H36">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I36">
-        <v>5.2</v>
+        <v>4.19</v>
       </c>
       <c r="J36">
-        <v>8.63</v>
+        <v>8.33</v>
       </c>
       <c r="K36">
         <v>34</v>
       </c>
       <c r="L36">
-        <v>34.7</v>
+        <v>34.1</v>
       </c>
       <c r="M36">
-        <v>34.7</v>
+        <v>34.1</v>
       </c>
       <c r="N36">
-        <v>3296.5</v>
+        <v>3546.4</v>
       </c>
       <c r="O36">
-        <v>3296.5</v>
+        <v>3546.4</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36" s="2">
+        <v>45912</v>
+      </c>
+      <c r="R36" t="s">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="2">
+        <v>45902</v>
+      </c>
+      <c r="U36" s="2">
         <v>45907</v>
       </c>
-      <c r="R36" t="s">
-        <v>54</v>
-      </c>
-      <c r="S36" t="s">
-        <v>55</v>
-      </c>
-      <c r="T36" s="2">
-        <v>45905</v>
-      </c>
-      <c r="U36" s="2">
-        <v>45910</v>
-      </c>
       <c r="V36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W36">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="X36" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="Y36" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Z36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AC36" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="AD36">
+        <v>290631</v>
       </c>
       <c r="AE36" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2">
-        <v>45906</v>
+        <v>45902</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="I37">
-        <v>4.8</v>
+        <v>4.73</v>
       </c>
       <c r="J37">
-        <v>8.46</v>
+        <v>8.74</v>
       </c>
       <c r="K37">
         <v>34</v>
       </c>
       <c r="L37">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="N37">
-        <v>3760.5</v>
+        <v>2339.2</v>
       </c>
       <c r="O37">
-        <v>3706</v>
+        <v>2305.2</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="R37" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="S37" t="s">
+        <v>56</v>
+      </c>
+      <c r="T37" s="2">
+        <v>45902</v>
+      </c>
+      <c r="U37" s="2">
+        <v>45907</v>
+      </c>
+      <c r="V37" t="s">
         <v>41</v>
       </c>
-      <c r="T37" s="2">
-        <v>45906</v>
-      </c>
-      <c r="U37" s="2">
-        <v>45911</v>
-      </c>
-      <c r="V37" t="s">
-        <v>42</v>
-      </c>
       <c r="W37">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X37" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AA37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="AC37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD37" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AE37" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AF37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45901</v>
+      </c>
+      <c r="F38" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="2">
-        <v>45907</v>
-      </c>
-      <c r="F38" t="s">
-        <v>53</v>
-      </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I38">
-        <v>4.02</v>
+        <v>5.06</v>
       </c>
       <c r="J38">
-        <v>8.59</v>
+        <v>8.24</v>
       </c>
       <c r="K38">
         <v>34</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>34.6</v>
       </c>
       <c r="M38">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="N38">
-        <v>2278</v>
+        <v>2837.2</v>
       </c>
       <c r="O38">
-        <v>2244.5</v>
+        <v>2755.2</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="R38" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="T38" s="2">
-        <v>45907</v>
+        <v>45901</v>
       </c>
       <c r="U38" s="2">
-        <v>45912</v>
+        <v>45906</v>
       </c>
       <c r="V38" t="s">
+        <v>41</v>
+      </c>
+      <c r="W38">
+        <v>4.3</v>
+      </c>
+      <c r="X38" t="s">
         <v>42</v>
       </c>
-      <c r="W38">
-        <v>4.7</v>
-      </c>
-      <c r="X38" t="s">
-        <v>112</v>
-      </c>
       <c r="Y38" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="Z38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AA38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB38" t="s">
         <v>46</v>
       </c>
-      <c r="AB38" t="s">
-        <v>115</v>
-      </c>
       <c r="AC38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD38" t="s">
         <v>48</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>49</v>
       </c>
-      <c r="AE38" t="s">
-        <v>116</v>
-      </c>
       <c r="AF38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:33">
-      <c r="A39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H39">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I39">
-        <v>4.35</v>
+        <v>4.16</v>
       </c>
       <c r="J39">
-        <v>8.06</v>
+        <v>8.7</v>
       </c>
       <c r="K39">
         <v>34</v>
       </c>
       <c r="L39">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="M39">
-        <v>33.7</v>
+        <v>34.6</v>
       </c>
       <c r="N39">
-        <v>3967.2</v>
+        <v>3375.9</v>
       </c>
       <c r="O39">
-        <v>3909.2</v>
+        <v>3425.4</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="T39" s="2">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="U39" s="2">
-        <v>45913</v>
+        <v>45906</v>
       </c>
       <c r="V39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W39">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="X39" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="Y39" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="Z39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="AC39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE39" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="AF39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45901</v>
+      </c>
+      <c r="F40" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="2">
-        <v>45909</v>
-      </c>
-      <c r="F40" t="s">
-        <v>53</v>
-      </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H40">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I40">
-        <v>5.1</v>
+        <v>4.97</v>
       </c>
       <c r="J40">
-        <v>8.61</v>
+        <v>8.39</v>
       </c>
       <c r="K40">
         <v>34</v>
       </c>
       <c r="L40">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="M40">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="N40">
-        <v>2463.7</v>
+        <v>2664.2</v>
       </c>
       <c r="O40">
-        <v>2499.2</v>
+        <v>2702.7</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="R40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s">
         <v>40</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" s="2">
+        <v>45901</v>
+      </c>
+      <c r="U40" s="2">
+        <v>45906</v>
+      </c>
+      <c r="V40" t="s">
         <v>41</v>
       </c>
-      <c r="T40" s="2">
-        <v>45909</v>
-      </c>
-      <c r="U40" s="2">
-        <v>45914</v>
-      </c>
-      <c r="V40" t="s">
-        <v>42</v>
-      </c>
       <c r="W40">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="X40" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="Y40" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Z40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="AC40" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AD40" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45901</v>
+      </c>
+      <c r="F41" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="2">
-        <v>45910</v>
-      </c>
-      <c r="F41" t="s">
-        <v>53</v>
-      </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H41">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I41">
-        <v>3.85</v>
+        <v>4.99</v>
       </c>
       <c r="J41">
-        <v>8.52</v>
+        <v>8.12</v>
       </c>
       <c r="K41">
         <v>34</v>
       </c>
       <c r="L41">
-        <v>33.9</v>
+        <v>34.6</v>
       </c>
       <c r="M41">
-        <v>32.9</v>
+        <v>34.1</v>
       </c>
       <c r="N41">
-        <v>3288.3</v>
+        <v>3667.6</v>
       </c>
       <c r="O41">
-        <v>3191.3</v>
+        <v>3614.6</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -6756,56 +6625,56 @@
         <v>45912</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="T41" s="2">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="U41" s="2">
-        <v>45915</v>
+        <v>45906</v>
       </c>
       <c r="V41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W41">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="X41" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="AC41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD41" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AE41" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AF41" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AH41" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG41" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:AG41">
+      <sortCondition ref="Q1" descending="1"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/farmer_milk_data.xlsx
+++ b/farmer_milk_data.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$AG$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$41</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,7 +245,7 @@
     <t>10092025F9014</t>
   </si>
   <si>
-    <t>Amit Shah</t>
+    <t>Ramanlal bhai</t>
   </si>
   <si>
     <t>F9015</t>
@@ -379,16 +392,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,24 +413,361 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -437,69 +791,339 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -510,10 +1134,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -551,71 +1175,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,7 +1267,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -666,11 +1290,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -679,13 +1303,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -695,7 +1319,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -704,7 +1328,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -713,7 +1337,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -721,10 +1345,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -784,4118 +1408,4070 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="14" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.5809523809524" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8666666666667" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.5809523809524" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5809523809524" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13.5809523809524" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.5809523809524" style="3" customWidth="1"/>
+    <col min="12" max="15" width="13.5809523809524" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.5809523809524" style="3" customWidth="1"/>
+    <col min="17" max="17" width="27.8666666666667" style="2" customWidth="1"/>
+    <col min="18" max="19" width="13.5809523809524" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7238095238095" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.4380952380952" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.5809523809524" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5809523809524" style="3" customWidth="1"/>
+    <col min="24" max="27" width="13.5809523809524" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.8666666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5809523809524" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.4380952380952" style="5" customWidth="1"/>
+    <col min="31" max="31" width="15.152380952381" style="1" customWidth="1"/>
+    <col min="32" max="33" width="13.5809523809524" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:33">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>45910</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>106</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="12">
         <v>4.68</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="12">
         <v>8.22</v>
       </c>
-      <c r="K2" s="7">
-        <v>34</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="10">
+        <v>34</v>
+      </c>
+      <c r="L2" s="12">
         <v>34.4</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="12">
         <v>33.9</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="12">
         <v>3646.4</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="12">
         <v>3593.4</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="10">
         <v>0</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="9">
         <v>45912</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="9">
         <v>45910</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="9">
         <v>45915</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="12">
         <v>4.3</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD2" s="5">
         <v>290629</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>45910</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>85</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="12">
         <v>4.37</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="12">
         <v>8.16</v>
       </c>
-      <c r="K3" s="7">
-        <v>34</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="10">
+        <v>34</v>
+      </c>
+      <c r="L3" s="12">
         <v>34.2</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="12">
         <v>33.2</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>2907</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>2822</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10">
         <v>0</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="9">
         <v>45912</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="9">
         <v>45910</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="9">
         <v>45915</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="12">
         <v>4.2</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="5">
         <v>290630</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>45910</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>100</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <v>4.4</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="12">
         <v>8.41</v>
       </c>
-      <c r="K4" s="7">
-        <v>34</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="10">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
         <v>34.2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="12">
         <v>34.2</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="10">
         <v>3420</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>3420</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="10">
         <v>0</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="9">
         <v>45912</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="9">
         <v>45910</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="9">
         <v>45915</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="12">
         <v>4.6</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="5">
         <v>290631</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>45910</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>97</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <v>3.85</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="12">
         <v>8.52</v>
       </c>
-      <c r="K5" s="7">
-        <v>34</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="10">
+        <v>34</v>
+      </c>
+      <c r="L5" s="12">
         <v>33.9</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="12">
         <v>32.9</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="12">
         <v>3288.3</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="12">
         <v>3191.3</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="10">
         <v>0</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="9">
         <v>45912</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="9">
         <v>45910</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="9">
         <v>45915</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="12">
         <v>4.3</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="5">
         <v>290632</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>45909</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>96</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>4.07</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>8.57</v>
       </c>
-      <c r="K6" s="7">
-        <v>34</v>
-      </c>
-      <c r="L6" s="7">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>34</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="K6" s="10">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10">
+        <v>34</v>
+      </c>
+      <c r="M6" s="10">
+        <v>34</v>
+      </c>
+      <c r="N6" s="10">
         <v>3264</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="10">
         <v>3264</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="10">
         <v>0</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="9">
         <v>45912</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="9">
         <v>45909</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="9">
         <v>45914</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="12">
         <v>3.8</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="5">
         <v>290629</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AF6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>45909</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <v>72</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <v>4.91</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="12">
         <v>8.2</v>
       </c>
-      <c r="K7" s="7">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="10">
+        <v>34</v>
+      </c>
+      <c r="L7" s="12">
         <v>34.5</v>
       </c>
-      <c r="M7" s="7">
-        <v>34</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="M7" s="10">
+        <v>34</v>
+      </c>
+      <c r="N7" s="10">
         <v>2484</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="10">
         <v>2448</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="10">
         <v>0</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="9">
         <v>45912</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="9">
         <v>45909</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="9">
         <v>45914</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="12">
         <v>3.8</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="5">
         <v>290630</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>45909</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="10">
         <v>118</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="12">
         <v>4.28</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12">
         <v>8.17</v>
       </c>
-      <c r="K8" s="7">
-        <v>34</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="K8" s="10">
+        <v>34</v>
+      </c>
+      <c r="L8" s="12">
         <v>34.2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="12">
         <v>34.2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="12">
         <v>4035.6</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="12">
         <v>4035.6</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="10">
         <v>0</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="9">
         <v>45912</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="9">
         <v>45909</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="9">
         <v>45914</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="12">
         <v>4.5</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AD8" s="5">
         <v>290631</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AF8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>45909</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="10">
         <v>71</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="12">
         <v>5.1</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="12">
         <v>8.61</v>
       </c>
-      <c r="K9" s="7">
-        <v>34</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="K9" s="10">
+        <v>34</v>
+      </c>
+      <c r="L9" s="12">
         <v>34.7</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="12">
         <v>35.2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="12">
         <v>2463.7</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="12">
         <v>2499.2</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="10">
         <v>0</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="9">
         <v>45912</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="9">
         <v>45909</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="9">
         <v>45914</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="12">
         <v>4.8</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Y9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA9" s="5" t="s">
+      <c r="AA9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AB9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AC9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="5">
         <v>290632</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AF9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>45908</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="10">
         <v>88</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="12">
         <v>3.96</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="12">
         <v>8.36</v>
       </c>
-      <c r="K10" s="7">
-        <v>34</v>
-      </c>
-      <c r="L10" s="7">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="K10" s="10">
+        <v>34</v>
+      </c>
+      <c r="L10" s="10">
+        <v>34</v>
+      </c>
+      <c r="M10" s="10">
+        <v>34</v>
+      </c>
+      <c r="N10" s="10">
         <v>2992</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="10">
         <v>2992</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="10">
         <v>0</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="9">
         <v>45912</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="9">
         <v>45908</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="9">
         <v>45913</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="12">
         <v>3.8</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Y10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AA10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AB10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="5">
         <v>290629</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>45908</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="10">
         <v>108</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="12">
         <v>4.36</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="12">
         <v>8.47</v>
       </c>
-      <c r="K11" s="7">
-        <v>34</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="K11" s="10">
+        <v>34</v>
+      </c>
+      <c r="L11" s="12">
         <v>34.2</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="12">
         <v>33.7</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="12">
         <v>3693.6</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="12">
         <v>3639.6</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="10">
         <v>0</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="9">
         <v>45912</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="9">
         <v>45908</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="9">
         <v>45913</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="12">
         <v>3.8</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA11" s="5" t="s">
+      <c r="AA11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AC11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="5">
         <v>290630</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF11" s="5" t="s">
+      <c r="AF11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>45908</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <v>67</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="12">
         <v>4.06</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="12">
         <v>8.8</v>
       </c>
-      <c r="K12" s="7">
-        <v>34</v>
-      </c>
-      <c r="L12" s="7">
-        <v>34</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="K12" s="10">
+        <v>34</v>
+      </c>
+      <c r="L12" s="10">
+        <v>34</v>
+      </c>
+      <c r="M12" s="12">
         <v>33.5</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="10">
         <v>2278</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="12">
         <v>2244.5</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="10">
         <v>0</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="9">
         <v>45912</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="9">
         <v>45908</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="9">
         <v>45913</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="V12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="12">
         <v>4.5</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="Z12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AA12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AC12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="5">
         <v>290631</v>
       </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AE12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF12" s="5" t="s">
+      <c r="AF12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <v>45908</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="10">
         <v>116</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <v>4.35</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="12">
         <v>8.06</v>
       </c>
-      <c r="K13" s="7">
-        <v>34</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="K13" s="10">
+        <v>34</v>
+      </c>
+      <c r="L13" s="12">
         <v>34.2</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="12">
         <v>33.7</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="12">
         <v>3967.2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="12">
         <v>3909.2</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="10">
         <v>0</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="9">
         <v>45912</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="9">
         <v>45908</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="9">
         <v>45913</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="V13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="12">
         <v>3.9</v>
       </c>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="5" t="s">
+      <c r="Y13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="Z13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AA13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AB13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AC13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AD13" s="5">
         <v>290632</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AE13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AF13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>45907</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="10">
         <v>83</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="12">
         <v>4.18</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="12">
         <v>8.18</v>
       </c>
-      <c r="K14" s="7">
-        <v>34</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K14" s="10">
+        <v>34</v>
+      </c>
+      <c r="L14" s="12">
         <v>34.1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="12">
         <v>34.1</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="12">
         <v>2830.3</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="12">
         <v>2830.3</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="10">
         <v>0</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="9">
         <v>45912</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="9">
         <v>45907</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="9">
         <v>45912</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="12">
         <v>4.5</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Z14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AA14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AC14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="5">
         <v>290629</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AE14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AF14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5" t="s">
+    <row r="15" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>45907</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="10">
         <v>76</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="12">
         <v>4.25</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="12">
         <v>8.03</v>
       </c>
-      <c r="K15" s="7">
-        <v>34</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="10">
+        <v>34</v>
+      </c>
+      <c r="L15" s="12">
         <v>34.1</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="12">
         <v>33.1</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="12">
         <v>2591.6</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="12">
         <v>2515.6</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="10">
         <v>0</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="9">
         <v>45912</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="9">
         <v>45907</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="9">
         <v>45912</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="12">
         <v>4.1</v>
       </c>
-      <c r="X15" s="5" t="s">
+      <c r="X15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y15" s="5" t="s">
+      <c r="Y15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AA15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="5" t="s">
+      <c r="AB15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC15" s="5" t="s">
+      <c r="AC15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="5">
         <v>290630</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AF15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>45907</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="10">
         <v>102</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="12">
         <v>3.9</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <v>8.73</v>
       </c>
-      <c r="K16" s="7">
-        <v>34</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="K16" s="10">
+        <v>34</v>
+      </c>
+      <c r="L16" s="12">
         <v>33.9</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="12">
         <v>33.4</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="12">
         <v>3457.8</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="12">
         <v>3406.8</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="10">
         <v>0</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="9">
         <v>45912</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="9">
         <v>45907</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="9">
         <v>45912</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="12">
         <v>4.1</v>
       </c>
-      <c r="X16" s="5" t="s">
+      <c r="X16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y16" s="5" t="s">
+      <c r="Y16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="Z16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA16" s="5" t="s">
+      <c r="AA16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AB16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC16" s="5" t="s">
+      <c r="AC16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="5">
         <v>290631</v>
       </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AE16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF16" s="5" t="s">
+      <c r="AF16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>45907</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="10">
         <v>67</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="12">
         <v>4.02</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="12">
         <v>8.59</v>
       </c>
-      <c r="K17" s="7">
-        <v>34</v>
-      </c>
-      <c r="L17" s="7">
-        <v>34</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="K17" s="10">
+        <v>34</v>
+      </c>
+      <c r="L17" s="10">
+        <v>34</v>
+      </c>
+      <c r="M17" s="12">
         <v>33.5</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="10">
         <v>2278</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="12">
         <v>2244.5</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="10">
         <v>0</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="9">
         <v>45912</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="9">
         <v>45907</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="9">
         <v>45912</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="12">
         <v>4.7</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="X17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="5" t="s">
+      <c r="Y17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="Z17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AA17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AB17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC17" s="5" t="s">
+      <c r="AC17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD17" s="9">
+      <c r="AD17" s="5">
         <v>290632</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AE17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF17" s="5" t="s">
+      <c r="AF17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <v>45906</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="10">
         <v>66</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="12">
         <v>4.32</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <v>8.81</v>
       </c>
-      <c r="K18" s="7">
-        <v>34</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="K18" s="10">
+        <v>34</v>
+      </c>
+      <c r="L18" s="12">
         <v>34.2</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="12">
         <v>34.7</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="12">
         <v>2257.2</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="12">
         <v>2290.2</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="10">
         <v>0</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="9">
         <v>45912</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="9">
         <v>45906</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="9">
         <v>45911</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="12">
         <v>4.2</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" s="5" t="s">
+      <c r="Y18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Z18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AA18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AC18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD18" s="9">
+      <c r="AD18" s="5">
         <v>290629</v>
       </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AE18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF18" s="5" t="s">
+      <c r="AF18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5" t="s">
+    <row r="19" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="9">
         <v>45906</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="10">
         <v>78</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="12">
         <v>4.12</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="12">
         <v>8.72</v>
       </c>
-      <c r="K19" s="7">
-        <v>34</v>
-      </c>
-      <c r="L19" s="8">
+      <c r="K19" s="10">
+        <v>34</v>
+      </c>
+      <c r="L19" s="12">
         <v>34.1</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="12">
         <v>33.1</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="12">
         <v>2659.8</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="12">
         <v>2581.8</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="10">
         <v>0</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="9">
         <v>45912</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="9">
         <v>45906</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="9">
         <v>45911</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="12">
         <v>4.4</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="X19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y19" s="5" t="s">
+      <c r="Y19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="Z19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AA19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB19" s="5" t="s">
+      <c r="AB19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AC19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AD19" s="5">
         <v>290630</v>
       </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AE19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF19" s="5" t="s">
+      <c r="AF19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5" t="s">
+    <row r="20" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <v>45906</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="10">
         <v>66</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="12">
         <v>4.86</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="12">
         <v>8.87</v>
       </c>
-      <c r="K20" s="7">
-        <v>34</v>
-      </c>
-      <c r="L20" s="8">
+      <c r="K20" s="10">
+        <v>34</v>
+      </c>
+      <c r="L20" s="12">
         <v>34.5</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="10">
         <v>35</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="10">
         <v>2277</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="10">
         <v>2310</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="10">
         <v>0</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="9">
         <v>45912</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="9">
         <v>45906</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="9">
         <v>45911</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="12">
         <v>4.5</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y20" s="5" t="s">
+      <c r="Y20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="Z20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AA20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB20" s="5" t="s">
+      <c r="AB20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AC20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="5">
         <v>290631</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AE20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF20" s="5" t="s">
+      <c r="AF20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5" t="s">
+    <row r="21" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="9">
         <v>45906</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="10">
         <v>109</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="12">
         <v>4.8</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="12">
         <v>8.46</v>
       </c>
-      <c r="K21" s="7">
-        <v>34</v>
-      </c>
-      <c r="L21" s="8">
+      <c r="K21" s="10">
+        <v>34</v>
+      </c>
+      <c r="L21" s="12">
         <v>34.5</v>
       </c>
-      <c r="M21" s="7">
-        <v>34</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="M21" s="10">
+        <v>34</v>
+      </c>
+      <c r="N21" s="12">
         <v>3760.5</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="10">
         <v>3706</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="10">
         <v>0</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="9">
         <v>45912</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="9">
         <v>45906</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="9">
         <v>45911</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="V21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="12">
         <v>4.2</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y21" s="5" t="s">
+      <c r="Y21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="Z21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AA21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="AB21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="5">
         <v>290632</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AE21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AF21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="5" t="s">
+    <row r="22" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <v>45905</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="10">
         <v>89</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="12">
         <v>4.86</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="12">
         <v>8.65</v>
       </c>
-      <c r="K22" s="7">
-        <v>34</v>
-      </c>
-      <c r="L22" s="8">
+      <c r="K22" s="10">
+        <v>34</v>
+      </c>
+      <c r="L22" s="12">
         <v>34.5</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="10">
         <v>35</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="12">
         <v>3070.5</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="10">
         <v>3115</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="10">
         <v>0</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="9">
         <v>45912</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="9">
         <v>45905</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="9">
         <v>45910</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="12">
         <v>4.5</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y22" s="5" t="s">
+      <c r="Y22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AA22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB22" s="5" t="s">
+      <c r="AB22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AC22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="5">
         <v>290629</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AE22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AF22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="5" t="s">
+    <row r="23" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <v>45905</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="10">
         <v>93</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="12">
         <v>4.83</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="12">
         <v>8.52</v>
       </c>
-      <c r="K23" s="7">
-        <v>34</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="K23" s="10">
+        <v>34</v>
+      </c>
+      <c r="L23" s="12">
         <v>34.5</v>
       </c>
-      <c r="M23" s="7">
-        <v>34</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="M23" s="10">
+        <v>34</v>
+      </c>
+      <c r="N23" s="12">
         <v>3208.5</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="10">
         <v>3162</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="10">
         <v>0</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="9">
         <v>45912</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="9">
         <v>45905</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="9">
         <v>45910</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="12">
         <v>4.3</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y23" s="5" t="s">
+      <c r="Y23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Z23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA23" s="5" t="s">
+      <c r="AA23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB23" s="5" t="s">
+      <c r="AB23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AC23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD23" s="7">
+      <c r="AD23" s="10">
         <v>290630</v>
       </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AE23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AF23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5" t="s">
+    <row r="24" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <v>45905</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="10">
         <v>100</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="12">
         <v>4.65</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="12">
         <v>8.76</v>
       </c>
-      <c r="K24" s="7">
-        <v>34</v>
-      </c>
-      <c r="L24" s="8">
+      <c r="K24" s="10">
+        <v>34</v>
+      </c>
+      <c r="L24" s="12">
         <v>34.4</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="12">
         <v>34.4</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="10">
         <v>3440</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="10">
         <v>3440</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="10">
         <v>0</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="9">
         <v>45912</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="9">
         <v>45905</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="9">
         <v>45910</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="12">
         <v>3.8</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y24" s="5" t="s">
+      <c r="Y24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z24" s="5" t="s">
+      <c r="Z24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AA24" s="5" t="s">
+      <c r="AA24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB24" s="5" t="s">
+      <c r="AB24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD24" s="9">
+      <c r="AD24" s="5">
         <v>290631</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AE24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF24" s="5" t="s">
+      <c r="AF24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5" t="s">
+    <row r="25" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="9">
         <v>45905</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="10">
         <v>95</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="12">
         <v>5.2</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="12">
         <v>8.63</v>
       </c>
-      <c r="K25" s="7">
-        <v>34</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="K25" s="10">
+        <v>34</v>
+      </c>
+      <c r="L25" s="12">
         <v>34.7</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="12">
         <v>34.7</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="12">
         <v>3296.5</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="12">
         <v>3296.5</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="10">
         <v>0</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="9">
         <v>45912</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="9">
         <v>45905</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="9">
         <v>45910</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="12">
         <v>4.7</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y25" s="5" t="s">
+      <c r="Y25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="Z25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA25" s="5" t="s">
+      <c r="AA25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB25" s="5" t="s">
+      <c r="AB25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC25" s="5" t="s">
+      <c r="AC25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="5">
         <v>290632</v>
       </c>
-      <c r="AE25" s="5" t="s">
+      <c r="AE25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF25" s="5" t="s">
+      <c r="AF25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="5" t="s">
+    <row r="26" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <v>45904</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="10">
         <v>100</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="12">
         <v>5.08</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="12">
         <v>8.1</v>
       </c>
-      <c r="K26" s="7">
-        <v>34</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="K26" s="10">
+        <v>34</v>
+      </c>
+      <c r="L26" s="12">
         <v>34.6</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="12">
         <v>33.6</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="10">
         <v>3460</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="10">
         <v>3360</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="10">
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="9">
         <v>45912</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="9">
         <v>45904</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="9">
         <v>45909</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="12">
         <v>4.6</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="X26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y26" s="5" t="s">
+      <c r="Y26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Z26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA26" s="5" t="s">
+      <c r="AA26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB26" s="5" t="s">
+      <c r="AB26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD26" s="9">
+      <c r="AD26" s="5">
         <v>290629</v>
       </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AE26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AF26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="5" t="s">
+    <row r="27" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>45904</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="10">
         <v>116</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="12">
         <v>4.96</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="12">
         <v>8.36</v>
       </c>
-      <c r="K27" s="7">
-        <v>34</v>
-      </c>
-      <c r="L27" s="8">
+      <c r="K27" s="10">
+        <v>34</v>
+      </c>
+      <c r="L27" s="12">
         <v>34.6</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="12">
         <v>34.1</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="12">
         <v>4013.6</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="12">
         <v>3955.6</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="10">
         <v>0</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="9">
         <v>45912</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="9">
         <v>45904</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="9">
         <v>45909</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W27" s="12">
         <v>4.7</v>
       </c>
-      <c r="X27" s="5" t="s">
+      <c r="X27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y27" s="5" t="s">
+      <c r="Y27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="Z27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA27" s="5" t="s">
+      <c r="AA27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB27" s="5" t="s">
+      <c r="AB27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC27" s="5" t="s">
+      <c r="AC27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD27" s="9">
+      <c r="AD27" s="5">
         <v>290630</v>
       </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AE27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF27" s="5" t="s">
+      <c r="AF27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5" t="s">
+    <row r="28" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="9">
         <v>45904</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="10">
         <v>104</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="12">
         <v>4.97</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="12">
         <v>8.31</v>
       </c>
-      <c r="K28" s="7">
-        <v>34</v>
-      </c>
-      <c r="L28" s="8">
+      <c r="K28" s="10">
+        <v>34</v>
+      </c>
+      <c r="L28" s="12">
         <v>34.6</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="12">
         <v>33.6</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="12">
         <v>3598.4</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="12">
         <v>3494.4</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="10">
         <v>0</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="9">
         <v>45912</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="9">
         <v>45904</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="9">
         <v>45909</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W28" s="12">
         <v>4.6</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y28" s="5" t="s">
+      <c r="Y28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Z28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" s="5" t="s">
+      <c r="AA28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB28" s="5" t="s">
+      <c r="AB28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AC28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD28" s="9">
+      <c r="AD28" s="5">
         <v>290631</v>
       </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AE28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF28" s="5" t="s">
+      <c r="AF28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="5" t="s">
+    <row r="29" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>45904</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="10">
         <v>89</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="12">
         <v>4.12</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="12">
         <v>8.4</v>
       </c>
-      <c r="K29" s="7">
-        <v>34</v>
-      </c>
-      <c r="L29" s="8">
+      <c r="K29" s="10">
+        <v>34</v>
+      </c>
+      <c r="L29" s="12">
         <v>34.1</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="12">
         <v>33.1</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="12">
         <v>3034.9</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="12">
         <v>2945.9</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="10">
         <v>0</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="9">
         <v>45912</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="9">
         <v>45904</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="9">
         <v>45909</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="V29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="12">
         <v>4.1</v>
       </c>
-      <c r="X29" s="5" t="s">
+      <c r="X29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y29" s="5" t="s">
+      <c r="Y29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z29" s="5" t="s">
+      <c r="Z29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA29" s="5" t="s">
+      <c r="AA29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="AB29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AC29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD29" s="9">
+      <c r="AD29" s="5">
         <v>290632</v>
       </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AE29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF29" s="5" t="s">
+      <c r="AF29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="5" t="s">
+    <row r="30" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <v>45903</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="10">
         <v>110</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="12">
         <v>3.99</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="12">
         <v>8.24</v>
       </c>
-      <c r="K30" s="7">
-        <v>34</v>
-      </c>
-      <c r="L30" s="7">
-        <v>34</v>
-      </c>
-      <c r="M30" s="8">
+      <c r="K30" s="10">
+        <v>34</v>
+      </c>
+      <c r="L30" s="10">
+        <v>34</v>
+      </c>
+      <c r="M30" s="12">
         <v>33.5</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="10">
         <v>3740</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="10">
         <v>3685</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="10">
         <v>0</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="9">
         <v>45912</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="9">
         <v>45903</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="9">
         <v>45908</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="V30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="12">
         <v>4.3</v>
       </c>
-      <c r="X30" s="5" t="s">
+      <c r="X30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y30" s="5" t="s">
+      <c r="Y30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z30" s="5" t="s">
+      <c r="Z30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA30" s="5" t="s">
+      <c r="AA30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB30" s="5" t="s">
+      <c r="AB30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC30" s="5" t="s">
+      <c r="AC30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD30" s="9">
+      <c r="AD30" s="5">
         <v>290629</v>
       </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AE30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF30" s="5" t="s">
+      <c r="AF30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5" t="s">
+    <row r="31" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="9">
         <v>45903</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="10">
         <v>107</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="12">
         <v>4.66</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="12">
         <v>8.57</v>
       </c>
-      <c r="K31" s="7">
-        <v>34</v>
-      </c>
-      <c r="L31" s="8">
+      <c r="K31" s="10">
+        <v>34</v>
+      </c>
+      <c r="L31" s="12">
         <v>34.4</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="12">
         <v>34.9</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="12">
         <v>3680.8</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="12">
         <v>3734.3</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="10">
         <v>0</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="9">
         <v>45912</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="9">
         <v>45903</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="9">
         <v>45908</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="V31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W31" s="12">
         <v>3.9</v>
       </c>
-      <c r="X31" s="5" t="s">
+      <c r="X31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y31" s="5" t="s">
+      <c r="Y31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z31" s="5" t="s">
+      <c r="Z31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA31" s="5" t="s">
+      <c r="AA31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB31" s="5" t="s">
+      <c r="AB31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC31" s="5" t="s">
+      <c r="AC31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD31" s="9">
+      <c r="AD31" s="5">
         <v>290630</v>
       </c>
-      <c r="AE31" s="5" t="s">
+      <c r="AE31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF31" s="5" t="s">
+      <c r="AF31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="9">
         <v>45903</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="10">
         <v>117</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="12">
         <v>4.36</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="12">
         <v>8.02</v>
       </c>
-      <c r="K32" s="7">
-        <v>34</v>
-      </c>
-      <c r="L32" s="8">
+      <c r="K32" s="10">
+        <v>34</v>
+      </c>
+      <c r="L32" s="12">
         <v>34.2</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="12">
         <v>33.2</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="12">
         <v>4001.4</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="12">
         <v>3884.4</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="10">
         <v>0</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="9">
         <v>45912</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="9">
         <v>45903</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="9">
         <v>45908</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="V32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="12">
         <v>4.6</v>
       </c>
-      <c r="X32" s="5" t="s">
+      <c r="X32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y32" s="5" t="s">
+      <c r="Y32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z32" s="5" t="s">
+      <c r="Z32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AA32" s="5" t="s">
+      <c r="AA32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB32" s="5" t="s">
+      <c r="AB32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC32" s="5" t="s">
+      <c r="AC32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD32" s="9">
+      <c r="AD32" s="5">
         <v>290631</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AE32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF32" s="5" t="s">
+      <c r="AF32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="5" t="s">
+    <row r="33" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="9">
         <v>45903</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="10">
         <v>72</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="12">
         <v>4.18</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="12">
         <v>8.52</v>
       </c>
-      <c r="K33" s="7">
-        <v>34</v>
-      </c>
-      <c r="L33" s="8">
+      <c r="K33" s="10">
+        <v>34</v>
+      </c>
+      <c r="L33" s="12">
         <v>34.1</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="12">
         <v>34.1</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="12">
         <v>2455.2</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="12">
         <v>2455.2</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="10">
         <v>0</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="9">
         <v>45912</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="S33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="9">
         <v>45903</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="9">
         <v>45908</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="12">
         <v>4.1</v>
       </c>
-      <c r="X33" s="5" t="s">
+      <c r="X33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y33" s="5" t="s">
+      <c r="Y33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z33" s="5" t="s">
+      <c r="Z33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AA33" s="5" t="s">
+      <c r="AA33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB33" s="5" t="s">
+      <c r="AB33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC33" s="5" t="s">
+      <c r="AC33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD33" s="9">
+      <c r="AD33" s="5">
         <v>290632</v>
       </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AE33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF33" s="5" t="s">
+      <c r="AF33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG33" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5" t="s">
+    <row r="34" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="9">
         <v>45902</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="10">
         <v>80</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="12">
         <v>4.37</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="12">
         <v>8.4</v>
       </c>
-      <c r="K34" s="7">
-        <v>34</v>
-      </c>
-      <c r="L34" s="8">
+      <c r="K34" s="10">
+        <v>34</v>
+      </c>
+      <c r="L34" s="12">
         <v>34.2</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="12">
         <v>34.7</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="10">
         <v>2736</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="10">
         <v>2776</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="10">
         <v>0</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="Q34" s="9">
         <v>45912</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="9">
         <v>45902</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="9">
         <v>45907</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W34" s="8">
+      <c r="W34" s="12">
         <v>4.3</v>
       </c>
-      <c r="X34" s="5" t="s">
+      <c r="X34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y34" s="5" t="s">
+      <c r="Y34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="Z34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA34" s="5" t="s">
+      <c r="AA34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB34" s="5" t="s">
+      <c r="AB34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC34" s="5" t="s">
+      <c r="AC34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD34" s="9">
+      <c r="AD34" s="5">
         <v>290629</v>
       </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AE34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF34" s="5" t="s">
+      <c r="AF34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5" t="s">
+    <row r="35" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="9">
         <v>45902</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="10">
         <v>87</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="12">
         <v>4.59</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="12">
         <v>8.16</v>
       </c>
-      <c r="K35" s="7">
-        <v>34</v>
-      </c>
-      <c r="L35" s="8">
+      <c r="K35" s="10">
+        <v>34</v>
+      </c>
+      <c r="L35" s="12">
         <v>34.4</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="12">
         <v>33.4</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="12">
         <v>2992.8</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="12">
         <v>2905.8</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="10">
         <v>0</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="9">
         <v>45912</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="S35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="9">
         <v>45902</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="9">
         <v>45907</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="V35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W35" s="12">
         <v>4.1</v>
       </c>
-      <c r="X35" s="5" t="s">
+      <c r="X35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y35" s="5" t="s">
+      <c r="Y35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="Z35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA35" s="5" t="s">
+      <c r="AA35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB35" s="5" t="s">
+      <c r="AB35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD35" s="9">
+      <c r="AD35" s="5">
         <v>290630</v>
       </c>
-      <c r="AE35" s="5" t="s">
+      <c r="AE35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF35" s="5" t="s">
+      <c r="AF35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5" t="s">
+    <row r="36" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <v>45902</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="10">
         <v>104</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="12">
         <v>4.19</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="12">
         <v>8.33</v>
       </c>
-      <c r="K36" s="7">
-        <v>34</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="K36" s="10">
+        <v>34</v>
+      </c>
+      <c r="L36" s="12">
         <v>34.1</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="12">
         <v>34.1</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="12">
         <v>3546.4</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="12">
         <v>3546.4</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="10">
         <v>0</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="9">
         <v>45912</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="S36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="9">
         <v>45902</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="9">
         <v>45907</v>
       </c>
-      <c r="V36" s="5" t="s">
+      <c r="V36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="12">
         <v>4.2</v>
       </c>
-      <c r="X36" s="5" t="s">
+      <c r="X36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y36" s="5" t="s">
+      <c r="Y36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z36" s="5" t="s">
+      <c r="Z36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AA36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB36" s="5" t="s">
+      <c r="AB36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC36" s="5" t="s">
+      <c r="AC36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AD36" s="10">
         <v>290631</v>
       </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AE36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF36" s="5" t="s">
+      <c r="AF36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG36" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5" t="s">
+    <row r="37" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <v>45902</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="10">
         <v>68</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="12">
         <v>4.73</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="12">
         <v>8.74</v>
       </c>
-      <c r="K37" s="7">
-        <v>34</v>
-      </c>
-      <c r="L37" s="8">
+      <c r="K37" s="10">
+        <v>34</v>
+      </c>
+      <c r="L37" s="12">
         <v>34.4</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="12">
         <v>33.9</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="12">
         <v>2339.2</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="12">
         <v>2305.2</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="10">
         <v>0</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q37" s="9">
         <v>45912</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="S37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="9">
         <v>45902</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="9">
         <v>45907</v>
       </c>
-      <c r="V37" s="5" t="s">
+      <c r="V37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W37" s="8">
+      <c r="W37" s="12">
         <v>4.3</v>
       </c>
-      <c r="X37" s="5" t="s">
+      <c r="X37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y37" s="5" t="s">
+      <c r="Y37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z37" s="5" t="s">
+      <c r="Z37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AA37" s="5" t="s">
+      <c r="AA37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB37" s="5" t="s">
+      <c r="AB37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC37" s="5" t="s">
+      <c r="AC37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD37" s="9">
+      <c r="AD37" s="5">
         <v>290632</v>
       </c>
-      <c r="AE37" s="5" t="s">
+      <c r="AE37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF37" s="5" t="s">
+      <c r="AF37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG37" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5" t="s">
+    <row r="38" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="9">
         <v>45901</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="10">
         <v>82</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="12">
         <v>5.06</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="12">
         <v>8.24</v>
       </c>
-      <c r="K38" s="7">
-        <v>34</v>
-      </c>
-      <c r="L38" s="8">
+      <c r="K38" s="10">
+        <v>34</v>
+      </c>
+      <c r="L38" s="12">
         <v>34.6</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="12">
         <v>33.6</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="12">
         <v>2837.2</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="12">
         <v>2755.2</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="10">
         <v>0</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q38" s="9">
         <v>45912</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="9">
         <v>45901</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="9">
         <v>45906</v>
       </c>
-      <c r="V38" s="5" t="s">
+      <c r="V38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W38" s="8">
+      <c r="W38" s="12">
         <v>4.3</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y38" s="5" t="s">
+      <c r="Y38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z38" s="5" t="s">
+      <c r="Z38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AA38" s="5" t="s">
+      <c r="AA38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB38" s="5" t="s">
+      <c r="AB38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC38" s="5" t="s">
+      <c r="AC38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="9">
+      <c r="AD38" s="5">
         <v>290629</v>
       </c>
-      <c r="AE38" s="5" t="s">
+      <c r="AE38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF38" s="5" t="s">
+      <c r="AF38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG38" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5" t="s">
+    <row r="39" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="9">
         <v>45901</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="10">
         <v>99</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="12">
         <v>4.16</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="12">
         <v>8.7</v>
       </c>
-      <c r="K39" s="7">
-        <v>34</v>
-      </c>
-      <c r="L39" s="8">
+      <c r="K39" s="10">
+        <v>34</v>
+      </c>
+      <c r="L39" s="12">
         <v>34.1</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="12">
         <v>34.6</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="12">
         <v>3375.9</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="12">
         <v>3425.4</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="10">
         <v>0</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="9">
         <v>45912</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="S39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="9">
         <v>45901</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="9">
         <v>45906</v>
       </c>
-      <c r="V39" s="5" t="s">
+      <c r="V39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W39" s="12">
         <v>4.6</v>
       </c>
-      <c r="X39" s="5" t="s">
+      <c r="X39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y39" s="5" t="s">
+      <c r="Y39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" s="5" t="s">
+      <c r="Z39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AA39" s="5" t="s">
+      <c r="AA39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB39" s="5" t="s">
+      <c r="AB39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC39" s="5" t="s">
+      <c r="AC39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD39" s="9">
+      <c r="AD39" s="5">
         <v>290630</v>
       </c>
-      <c r="AE39" s="5" t="s">
+      <c r="AE39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AF39" s="5" t="s">
+      <c r="AF39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG39" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5" t="s">
+    <row r="40" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="9">
         <v>45901</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="10">
         <v>77</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="12">
         <v>4.97</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="12">
         <v>8.39</v>
       </c>
-      <c r="K40" s="7">
-        <v>34</v>
-      </c>
-      <c r="L40" s="8">
+      <c r="K40" s="10">
+        <v>34</v>
+      </c>
+      <c r="L40" s="12">
         <v>34.6</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="12">
         <v>35.1</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="12">
         <v>2664.2</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="12">
         <v>2702.7</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="10">
         <v>0</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="9">
         <v>45912</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="S40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="9">
         <v>45901</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="9">
         <v>45906</v>
       </c>
-      <c r="V40" s="5" t="s">
+      <c r="V40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W40" s="8">
+      <c r="W40" s="12">
         <v>3.9</v>
       </c>
-      <c r="X40" s="5" t="s">
+      <c r="X40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y40" s="5" t="s">
+      <c r="Y40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="Z40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AA40" s="5" t="s">
+      <c r="AA40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB40" s="5" t="s">
+      <c r="AB40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC40" s="5" t="s">
+      <c r="AC40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD40" s="9">
+      <c r="AD40" s="5">
         <v>290631</v>
       </c>
-      <c r="AE40" s="5" t="s">
+      <c r="AE40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF40" s="5" t="s">
+      <c r="AF40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG40" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5" t="s">
+    <row r="41" ht="18.75" customHeight="1" spans="1:32">
+      <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="9">
         <v>45901</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="10">
         <v>106</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="12">
         <v>4.99</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="12">
         <v>8.12</v>
       </c>
-      <c r="K41" s="7">
-        <v>34</v>
-      </c>
-      <c r="L41" s="8">
+      <c r="K41" s="10">
+        <v>34</v>
+      </c>
+      <c r="L41" s="12">
         <v>34.6</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="12">
         <v>34.1</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="12">
         <v>3667.6</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="12">
         <v>3614.6</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="10">
         <v>0</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="9">
         <v>45912</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="9">
         <v>45901</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="9">
         <v>45906</v>
       </c>
-      <c r="V41" s="5" t="s">
+      <c r="V41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="10">
         <v>4</v>
       </c>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" s="5" t="s">
+      <c r="Y41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z41" s="5" t="s">
+      <c r="Z41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AA41" s="5" t="s">
+      <c r="AA41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB41" s="5" t="s">
+      <c r="AB41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC41" s="5" t="s">
+      <c r="AC41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD41" s="9">
+      <c r="AD41" s="5">
         <v>290632</v>
       </c>
-      <c r="AE41" s="5" t="s">
+      <c r="AE41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AF41" s="5" t="s">
+      <c r="AF41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG41" s="5"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AG41" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>